--- a/Relasi.xlsx
+++ b/Relasi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\Bahan skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TA\Bahan skripsi\Tabel csv Relasi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A03E2F-24F3-408B-A32E-292DA7C0D893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676B8FE9-8D30-4BA6-9928-D11EE41361F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="4" xr2:uid="{46E2797D-F8C1-4FC5-B0F0-790063B07737}"/>
+    <workbookView xWindow="20370" yWindow="-4725" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="4" xr2:uid="{46E2797D-F8C1-4FC5-B0F0-790063B07737}"/>
   </bookViews>
   <sheets>
     <sheet name="Relasi" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -780,12 +780,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -820,116 +829,125 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,15 +955,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,20 +964,14 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1770,653 +1773,653 @@
   </cols>
   <sheetData>
     <row r="6" spans="4:18" ht="15.75">
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="23" t="s">
+      <c r="E6" s="43"/>
+      <c r="F6" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="47"/>
+      <c r="Q6" s="47"/>
+      <c r="R6" s="48"/>
     </row>
     <row r="7" spans="4:18" ht="31.5">
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="47" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="48" t="s">
+      <c r="G7" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="48" t="s">
+      <c r="I7" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="48" t="s">
+      <c r="J7" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="48" t="s">
+      <c r="K7" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="48" t="s">
+      <c r="L7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="48" t="s">
+      <c r="M7" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="48" t="s">
+      <c r="N7" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="49" t="s">
+      <c r="O7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="50" t="s">
+      <c r="P7" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="50" t="s">
+      <c r="Q7" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="50" t="s">
+      <c r="R7" s="39" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="4:18" ht="15.75">
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="34" t="s">
+      <c r="G8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="H8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="34" t="s">
+      <c r="J8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="35" t="s">
+      <c r="M8" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R8" s="37" t="s">
+      <c r="O8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q8" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R8" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9" spans="4:18" ht="15.75">
-      <c r="D9" s="32"/>
-      <c r="E9" s="38" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="34" t="s">
+      <c r="F9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="34" t="s">
+      <c r="K9" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="37" t="s">
+      <c r="O9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="4:18" ht="15.75">
-      <c r="D10" s="32"/>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="34" t="s">
+      <c r="G10" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="H10" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="O10" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P10" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="37" t="s">
+      <c r="O10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="4:18" ht="15.75">
-      <c r="D11" s="32"/>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="34" t="s">
+      <c r="F11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="34" t="s">
+      <c r="J11" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="36" t="s">
+      <c r="K11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="37" t="s">
+      <c r="O11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="4:18" ht="15.75">
-      <c r="D12" s="32"/>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="34" t="s">
+      <c r="F12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="M12" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="37" t="s">
+      <c r="M12" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="4:18" ht="15.75">
-      <c r="D13" s="32"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="F13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="34" t="s">
+      <c r="F13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="34" t="s">
+      <c r="K13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="M13" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="37" t="s">
+      <c r="M13" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="4:18" ht="15.75">
-      <c r="D14" s="32"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="34" t="s">
+      <c r="F14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="M14" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P14" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="37" t="s">
+      <c r="M14" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="O14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="4:18" ht="15.75">
-      <c r="D15" s="32"/>
-      <c r="E15" s="38" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="F15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="35" t="s">
+      <c r="K15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="N15" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P15" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="37" t="s">
+      <c r="N15" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="4:18" ht="15.75">
-      <c r="D16" s="32"/>
-      <c r="E16" s="39" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="41" t="s">
+      <c r="F16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="37" t="s">
+      <c r="O16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="P16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="4:18" ht="15.75">
-      <c r="D17" s="32"/>
-      <c r="E17" s="42" t="s">
+      <c r="D17" s="49"/>
+      <c r="E17" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="F17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="32">
         <v>0</v>
       </c>
-      <c r="I17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="44" t="s">
+      <c r="I17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q17" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="R17" s="44" t="s">
+      <c r="Q17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="R17" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="4:18" ht="15.75">
-      <c r="D18" s="32"/>
-      <c r="E18" s="42" t="s">
+      <c r="D18" s="49"/>
+      <c r="E18" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="44" t="s">
+      <c r="F18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="Q18" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="R18" s="44" t="s">
+      <c r="Q18" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="R18" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="4:18" ht="15.75">
-      <c r="D19" s="32"/>
-      <c r="E19" s="42" t="s">
+      <c r="D19" s="49"/>
+      <c r="E19" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="43">
+      <c r="F19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="32">
         <v>0</v>
       </c>
-      <c r="H19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="O19" s="44" t="s">
+      <c r="H19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="O19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="Q19" s="44" t="s">
+      <c r="Q19" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="R19" s="44" t="s">
+      <c r="R19" s="33" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="20" spans="4:18" ht="15.75">
-      <c r="D20" s="32"/>
-      <c r="E20" s="42" t="s">
+      <c r="D20" s="49"/>
+      <c r="E20" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H20" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="N20" s="45" t="s">
+      <c r="F20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="N20" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O20" s="44" t="s">
+      <c r="O20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="Q20" s="44" t="s">
+      <c r="Q20" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="R20" s="46" t="s">
+      <c r="R20" s="35" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2458,481 +2461,481 @@
       <c r="A1" s="9"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="50" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
     </row>
     <row r="6" spans="1:15" ht="37.5" customHeight="1">
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="31" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="31" t="s">
+      <c r="O6" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="21.75" customHeight="1">
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="18" t="s">
+      <c r="G7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="E8" s="16"/>
-      <c r="F8" s="17" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N8" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="18" t="s">
+      <c r="G8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="E9" s="16"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N9" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O9" s="18" t="s">
+      <c r="G9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="E10" s="16"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="52"/>
+      <c r="F10" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N10" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O10" s="18" t="s">
+      <c r="G10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="E11" s="16"/>
-      <c r="F11" s="17" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O11" s="18" t="s">
+      <c r="G11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="E12" s="16"/>
-      <c r="F12" s="17" t="s">
+      <c r="E12" s="52"/>
+      <c r="F12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="18" t="s">
+      <c r="G12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="E13" s="16"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="18" t="s">
+      <c r="G13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="E14" s="16"/>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="18" t="s">
+      <c r="G14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N14" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="E15" s="16"/>
-      <c r="F15" s="17" t="s">
+      <c r="E15" s="52"/>
+      <c r="F15" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="O15" s="18" t="s">
+      <c r="G15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="E16" s="16"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="52"/>
+      <c r="F16" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O16" s="20" t="s">
+      <c r="G16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O16" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="17" spans="5:15">
-      <c r="E17" s="16"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="52"/>
+      <c r="F17" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="20" t="s">
+      <c r="G17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="18" spans="5:15">
-      <c r="E18" s="16"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="52"/>
+      <c r="F18" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="H18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="I18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="O18" s="20" t="s">
+      <c r="G18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="O18" s="17" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="19" spans="5:15">
-      <c r="E19" s="16"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="52"/>
+      <c r="F19" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="N19" s="20" t="s">
+      <c r="G19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="N19" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="O19" s="20" t="s">
+      <c r="O19" s="17" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2968,349 +2971,349 @@
   </cols>
   <sheetData>
     <row r="5" spans="4:14" ht="15.75">
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62" t="s">
+      <c r="E5" s="53"/>
+      <c r="F5" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
     </row>
     <row r="6" spans="4:14" ht="31.5">
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="31" t="s">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="31" t="s">
+      <c r="H6" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L6" s="31" t="s">
+      <c r="L6" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="N6" s="31" t="s">
+      <c r="N6" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="7" spans="4:14" ht="15.75">
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="43" t="s">
+      <c r="G7" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J7" s="43" t="s">
+      <c r="J7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K7" s="43" t="s">
+      <c r="K7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="L7" s="43" t="s">
+      <c r="L7" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="44" t="s">
+      <c r="M7" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N7" s="43" t="s">
+      <c r="N7" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="4:14" ht="15.75">
-      <c r="D8" s="32"/>
-      <c r="E8" s="63" t="s">
+      <c r="D8" s="49"/>
+      <c r="E8" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="43" t="s">
+      <c r="H8" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="43" t="s">
+      <c r="J8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="43" t="s">
+      <c r="L8" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="43" t="s">
+      <c r="N8" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9" spans="4:14" ht="15.75">
-      <c r="D9" s="32"/>
-      <c r="E9" s="63" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="43" t="s">
+      <c r="F9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="44" t="s">
+      <c r="I9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N9" s="43" t="s">
+      <c r="N9" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="4:14" ht="15.75">
-      <c r="D10" s="32"/>
-      <c r="E10" s="63" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="43" t="s">
+      <c r="F10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="43" t="s">
+      <c r="K10" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="44" t="s">
+      <c r="L10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="4:14" ht="15.75">
-      <c r="D11" s="32"/>
-      <c r="E11" s="63" t="s">
+      <c r="D11" s="49"/>
+      <c r="E11" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="43" t="s">
+      <c r="F11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="K11" s="43" t="s">
+      <c r="K11" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="44" t="s">
+      <c r="L11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N11" s="43" t="s">
+      <c r="N11" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="12" spans="4:14" ht="15.75">
-      <c r="D12" s="32"/>
-      <c r="E12" s="63" t="s">
+      <c r="D12" s="49"/>
+      <c r="E12" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="43" t="s">
+      <c r="F12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="K12" s="43" t="s">
+      <c r="K12" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="44" t="s">
+      <c r="L12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="43" t="s">
+      <c r="N12" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="4:14" ht="15.75">
-      <c r="D13" s="32"/>
-      <c r="E13" s="63" t="s">
+      <c r="D13" s="49"/>
+      <c r="E13" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="43" t="s">
+      <c r="F13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L13" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="M13" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="43" t="s">
+      <c r="M13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="14" spans="4:14" ht="15.75">
-      <c r="D14" s="32"/>
-      <c r="E14" s="63" t="s">
+      <c r="D14" s="49"/>
+      <c r="E14" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M14" s="44" t="s">
+      <c r="F14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="N14" s="43" t="s">
+      <c r="N14" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="15" spans="4:14" ht="15.75">
-      <c r="D15" s="32"/>
-      <c r="E15" s="63" t="s">
+      <c r="D15" s="49"/>
+      <c r="E15" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="43" t="s">
+      <c r="F15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M15" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="32" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3328,8 +3331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2069802-01ED-41FE-AB00-23566A0E336C}">
   <dimension ref="E7:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3353,66 +3356,66 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:19">
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="55"/>
+      <c r="G7" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
       <c r="S7" s="55"/>
     </row>
     <row r="8" spans="5:19" ht="42.75" customHeight="1">
       <c r="E8" s="56"/>
       <c r="F8" s="57"/>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="I8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="K8" s="29" t="s">
+      <c r="K8" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="29" t="s">
+      <c r="L8" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="M8" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="N8" s="29" t="s">
+      <c r="N8" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O8" s="29" t="s">
+      <c r="O8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="Q8" s="31" t="s">
+      <c r="Q8" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="31" t="s">
+      <c r="R8" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3420,406 +3423,406 @@
       <c r="E9" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P9" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q9" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S9" s="43" t="s">
+      <c r="G9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R9" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S9" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="5:19">
-      <c r="E10" s="60"/>
-      <c r="F10" s="59" t="s">
+      <c r="E10" s="59"/>
+      <c r="F10" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P10" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q10" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="43" t="s">
+      <c r="G10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N10" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S10" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="5:19">
-      <c r="E11" s="60"/>
-      <c r="F11" s="59" t="s">
+      <c r="E11" s="59"/>
+      <c r="F11" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="N11" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="O11" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q11" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="43" t="s">
+      <c r="G11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R11" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S11" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" spans="5:19">
-      <c r="E12" s="60"/>
-      <c r="F12" s="59" t="s">
+      <c r="E12" s="59"/>
+      <c r="F12" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="N12" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S12" s="43" t="s">
+      <c r="G12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R12" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S12" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" spans="5:19">
-      <c r="E13" s="60"/>
-      <c r="F13" s="59" t="s">
+      <c r="E13" s="59"/>
+      <c r="F13" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q13" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S13" s="43" t="s">
+      <c r="G13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R13" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S13" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" spans="5:19">
-      <c r="E14" s="60"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="59"/>
+      <c r="F14" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O14" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="43" t="s">
+      <c r="G14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S14" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="15" spans="5:19">
-      <c r="E15" s="60"/>
-      <c r="F15" s="59" t="s">
+      <c r="E15" s="59"/>
+      <c r="F15" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="N15" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="O15" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="P15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="43" t="s">
+      <c r="G15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="O15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="P15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S15" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16" spans="5:19">
-      <c r="E16" s="60"/>
-      <c r="F16" s="59" t="s">
+      <c r="E16" s="59"/>
+      <c r="F16" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="M16" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="N16" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="O16" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P16" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="S16" s="43" t="s">
+      <c r="G16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="S16" s="32" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="17" spans="5:19">
-      <c r="E17" s="61"/>
-      <c r="F17" s="59" t="s">
+      <c r="E17" s="60"/>
+      <c r="F17" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="I17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="M17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="43" t="s">
+      <c r="G17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="K17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Q17" s="43" t="s">
+      <c r="Q17" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="R17" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="S17" s="43" t="s">
+      <c r="R17" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="S17" s="32" t="s">
         <v>66</v>
       </c>
     </row>
